--- a/po_analysis_by_asin/B0CDP24LW9_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDP24LW9_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,25 +452,49 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45439</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45530</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45635</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B7" t="n">
         <v>20</v>
       </c>
     </row>
@@ -485,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,25 +531,33 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45505</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45627</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B5" t="n">
         <v>20</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CDP24LW9_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDP24LW9_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -525,7 +526,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -559,6 +560,243 @@
       </c>
       <c r="B5" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-30.46048657710787</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.07749855896402</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-31.16888998044095</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79.5716654026804</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-25.38601782918717</v>
+      </c>
+      <c r="D4" t="n">
+        <v>76.8580363959009</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>61</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.937462692982734</v>
+      </c>
+      <c r="D5" t="n">
+        <v>116.7785862250356</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>75</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.50289396140212</v>
+      </c>
+      <c r="D6" t="n">
+        <v>129.3053753461474</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>91</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38.90502809866103</v>
+      </c>
+      <c r="D7" t="n">
+        <v>143.5418668951559</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>92</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35.50544832335577</v>
+      </c>
+      <c r="D8" t="n">
+        <v>146.4817285614184</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>93</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36.09570170594329</v>
+      </c>
+      <c r="D9" t="n">
+        <v>149.2126528622291</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>95</v>
+      </c>
+      <c r="C10" t="n">
+        <v>38.68652676069535</v>
+      </c>
+      <c r="D10" t="n">
+        <v>149.1198974274585</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>96</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43.62882901534231</v>
+      </c>
+      <c r="D11" t="n">
+        <v>147.0568102361585</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>97</v>
+      </c>
+      <c r="C12" t="n">
+        <v>44.23574883105031</v>
+      </c>
+      <c r="D12" t="n">
+        <v>150.6058227073527</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>98</v>
+      </c>
+      <c r="C13" t="n">
+        <v>40.69792297432461</v>
+      </c>
+      <c r="D13" t="n">
+        <v>152.3243109943162</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99</v>
+      </c>
+      <c r="C14" t="n">
+        <v>43.23683006053418</v>
+      </c>
+      <c r="D14" t="n">
+        <v>152.0628891693325</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>44.97036086358842</v>
+      </c>
+      <c r="D15" t="n">
+        <v>153.6812268412772</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CDP24LW9_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDP24LW9_po_data.xlsx
@@ -573,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,16 +592,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -610,12 +600,6 @@
       <c r="B2" t="n">
         <v>22</v>
       </c>
-      <c r="C2" t="n">
-        <v>-30.46048657710787</v>
-      </c>
-      <c r="D2" t="n">
-        <v>75.07749855896402</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -624,12 +608,6 @@
       <c r="B3" t="n">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
-        <v>-31.16888998044095</v>
-      </c>
-      <c r="D3" t="n">
-        <v>79.5716654026804</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,12 +616,6 @@
       <c r="B4" t="n">
         <v>24</v>
       </c>
-      <c r="C4" t="n">
-        <v>-25.38601782918717</v>
-      </c>
-      <c r="D4" t="n">
-        <v>76.8580363959009</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -652,12 +624,6 @@
       <c r="B5" t="n">
         <v>61</v>
       </c>
-      <c r="C5" t="n">
-        <v>7.937462692982734</v>
-      </c>
-      <c r="D5" t="n">
-        <v>116.7785862250356</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -666,12 +632,6 @@
       <c r="B6" t="n">
         <v>75</v>
       </c>
-      <c r="C6" t="n">
-        <v>20.50289396140212</v>
-      </c>
-      <c r="D6" t="n">
-        <v>129.3053753461474</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -680,12 +640,6 @@
       <c r="B7" t="n">
         <v>91</v>
       </c>
-      <c r="C7" t="n">
-        <v>38.90502809866103</v>
-      </c>
-      <c r="D7" t="n">
-        <v>143.5418668951559</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -694,12 +648,6 @@
       <c r="B8" t="n">
         <v>92</v>
       </c>
-      <c r="C8" t="n">
-        <v>35.50544832335577</v>
-      </c>
-      <c r="D8" t="n">
-        <v>146.4817285614184</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -708,12 +656,6 @@
       <c r="B9" t="n">
         <v>93</v>
       </c>
-      <c r="C9" t="n">
-        <v>36.09570170594329</v>
-      </c>
-      <c r="D9" t="n">
-        <v>149.2126528622291</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -722,12 +664,6 @@
       <c r="B10" t="n">
         <v>95</v>
       </c>
-      <c r="C10" t="n">
-        <v>38.68652676069535</v>
-      </c>
-      <c r="D10" t="n">
-        <v>149.1198974274585</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -736,12 +672,6 @@
       <c r="B11" t="n">
         <v>96</v>
       </c>
-      <c r="C11" t="n">
-        <v>43.62882901534231</v>
-      </c>
-      <c r="D11" t="n">
-        <v>147.0568102361585</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -750,12 +680,6 @@
       <c r="B12" t="n">
         <v>97</v>
       </c>
-      <c r="C12" t="n">
-        <v>44.23574883105031</v>
-      </c>
-      <c r="D12" t="n">
-        <v>150.6058227073527</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -764,12 +688,6 @@
       <c r="B13" t="n">
         <v>98</v>
       </c>
-      <c r="C13" t="n">
-        <v>40.69792297432461</v>
-      </c>
-      <c r="D13" t="n">
-        <v>152.3243109943162</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -778,12 +696,6 @@
       <c r="B14" t="n">
         <v>99</v>
       </c>
-      <c r="C14" t="n">
-        <v>43.23683006053418</v>
-      </c>
-      <c r="D14" t="n">
-        <v>152.0628891693325</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -791,12 +703,6 @@
       </c>
       <c r="B15" t="n">
         <v>100</v>
-      </c>
-      <c r="C15" t="n">
-        <v>44.97036086358842</v>
-      </c>
-      <c r="D15" t="n">
-        <v>153.6812268412772</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CDP24LW9_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDP24LW9_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -510,7 +518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +570,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -573,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +614,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +622,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -614,7 +630,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -622,7 +638,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +646,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -638,71 +654,79 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
